--- a/dataset/classificacao_fora_23.xlsx
+++ b/dataset/classificacao_fora_23.xlsx
@@ -51,128 +51,128 @@
     <t xml:space="preserve">1º  </t>
   </si>
   <si>
-    <t>Atlético - MG</t>
+    <t>Botafogo</t>
   </si>
   <si>
     <t xml:space="preserve">2º </t>
   </si>
   <si>
+    <t>Atlético-MG</t>
+  </si>
+  <si>
+    <t>3º</t>
+  </si>
+  <si>
     <t>Cuiabá</t>
   </si>
   <si>
-    <t>3º</t>
+    <t>4º</t>
   </si>
   <si>
     <t>Palmeiras</t>
   </si>
   <si>
-    <t>4º</t>
+    <t>5º</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>6º</t>
+  </si>
+  <si>
+    <t>Grêmio</t>
+  </si>
+  <si>
+    <t>7º</t>
   </si>
   <si>
     <t>Cruzeiro</t>
   </si>
   <si>
-    <t>5º</t>
+    <t>8º</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>9º</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>10º</t>
   </si>
   <si>
     <t>Fluminense</t>
   </si>
   <si>
-    <t>6º</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>7º</t>
-  </si>
-  <si>
-    <t>Botafogo</t>
-  </si>
-  <si>
-    <t>8º</t>
-  </si>
-  <si>
-    <t>Grêmio</t>
-  </si>
-  <si>
-    <t>9º</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>10º</t>
+    <t>11º</t>
+  </si>
+  <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
+    <t>12º</t>
   </si>
   <si>
     <t>Vasco da Gama</t>
   </si>
   <si>
-    <t>11º</t>
-  </si>
-  <si>
-    <t>Athletico - PR</t>
-  </si>
-  <si>
-    <t>12º</t>
+    <t>13º</t>
+  </si>
+  <si>
+    <t>Athletico-PR</t>
+  </si>
+  <si>
+    <t>14º</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>15º</t>
   </si>
   <si>
     <t>Santos</t>
   </si>
   <si>
-    <t>13º</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>14º</t>
-  </si>
-  <si>
-    <t>Red Bull Bragantino</t>
-  </si>
-  <si>
-    <t>15º</t>
+    <t>16º</t>
+  </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>17º</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>18º</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>19º</t>
   </si>
   <si>
     <t>São Paulo</t>
   </si>
   <si>
-    <t>16º</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>17º</t>
-  </si>
-  <si>
-    <t>América - MG</t>
-  </si>
-  <si>
-    <t>18º</t>
-  </si>
-  <si>
-    <t>Goiás</t>
-  </si>
-  <si>
-    <t>19º</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
     <t>20º</t>
   </si>
   <si>
-    <t>Corinthians</t>
+    <t>América-MG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -187,18 +187,8 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -215,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -235,33 +225,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FFE4E4E4"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FFE4E4E4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE4E4E4"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FFE4E4E4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE4E4E4"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE4E4E4"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FFE4E4E4"/>
-      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -303,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -313,29 +276,17 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,7 +505,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="12.63"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col customWidth="1" min="4" max="7" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -597,123 +548,123 @@
         <v>11</v>
       </c>
       <c r="C2" s="4">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="D2" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H2" s="5">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="I2" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="J2" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0.0</v>
+      <c r="C3" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="C4" s="4">
         <v>10.0</v>
       </c>
-      <c r="I4" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>7.0</v>
+      <c r="D4" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="C5" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="J5" s="5">
         <v>6.0</v>
       </c>
     </row>
@@ -721,512 +672,512 @@
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="C6" s="4">
         <v>9.0</v>
       </c>
-      <c r="I6" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="D6" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="5">
         <v>0.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="C7" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="5">
         <v>0.0</v>
       </c>
-      <c r="G7" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>2.0</v>
+      <c r="G7" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>-4.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0.0</v>
+      <c r="C8" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>-5.0</v>
+      <c r="C9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0.0</v>
+      <c r="C10" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-4.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>-4.0</v>
+      <c r="C11" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="C12" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="5">
         <v>8.0</v>
       </c>
-      <c r="J12" s="9">
-        <v>-3.0</v>
+      <c r="I12" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" s="4">
         <v>5.0</v>
       </c>
-      <c r="E13" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>-3.0</v>
+      <c r="D13" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>-6.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>-5.0</v>
+      <c r="C14" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>-4.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>-1.0</v>
+      <c r="C15" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>-6.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>-2.0</v>
+      <c r="C16" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>-6.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="C17" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="5">
         <v>5.0</v>
       </c>
-      <c r="E17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>-6.0</v>
+      <c r="H17" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>-7.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>-6.0</v>
+      <c r="C18" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>-11.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="5">
         <v>0.0</v>
       </c>
-      <c r="F19" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>-6.0</v>
+      <c r="G19" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>-8.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E20" s="5">
         <v>0.0</v>
       </c>
-      <c r="F20" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>13.0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>-8.0</v>
+      <c r="F20" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>-3.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E21" s="5">
         <v>0.0</v>
       </c>
-      <c r="D21" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>-9.0</v>
+      <c r="F21" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>-8.0</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/classificacao_fora_23.xlsx
+++ b/dataset/classificacao_fora_23.xlsx
@@ -57,7 +57,7 @@
     <t xml:space="preserve">2º </t>
   </si>
   <si>
-    <t>Atlético-MG</t>
+    <t>Atlético - MG</t>
   </si>
   <si>
     <t>3º</t>
@@ -111,7 +111,7 @@
     <t>11º</t>
   </si>
   <si>
-    <t>Bragantino</t>
+    <t>Red Bull Bragantino</t>
   </si>
   <si>
     <t>12º</t>
@@ -123,7 +123,7 @@
     <t>13º</t>
   </si>
   <si>
-    <t>Athletico-PR</t>
+    <t>Athletico - PR</t>
   </si>
   <si>
     <t>14º</t>
@@ -165,7 +165,7 @@
     <t>20º</t>
   </si>
   <si>
-    <t>América-MG</t>
+    <t>América - MG</t>
   </si>
 </sst>
 </file>
@@ -205,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -262,11 +262,25 @@
         <color rgb="FFE4E4E4"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEEEEEE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEEEEEE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEEEEEE"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -287,6 +301,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,7 +881,7 @@
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="4">
